--- a/5/9/Índice de stress local 2007 - Diaria.xlsx
+++ b/5/9/Índice de stress local 2007 - Diaria.xlsx
@@ -420,10 +420,10 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.2919</v>
+        <v>0.3016</v>
       </c>
       <c r="C2">
-        <v>0.2919</v>
+        <v>0.3016</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -431,10 +431,10 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.29</v>
+        <v>0.2996</v>
       </c>
       <c r="C3">
-        <v>0.29</v>
+        <v>0.2996</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -442,10 +442,10 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.2872</v>
+        <v>0.2966</v>
       </c>
       <c r="C4">
-        <v>0.2872</v>
+        <v>0.2966</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -453,10 +453,10 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.2822</v>
+        <v>0.2912</v>
       </c>
       <c r="C5">
-        <v>0.2822</v>
+        <v>0.2912</v>
       </c>
     </row>
   </sheetData>

--- a/5/9/Índice de stress local 2007 - Diaria.xlsx
+++ b/5/9/Índice de stress local 2007 - Diaria.xlsx
@@ -420,10 +420,10 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.3016</v>
+        <v>0.3014</v>
       </c>
       <c r="C2">
-        <v>0.3016</v>
+        <v>0.3014</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -431,10 +431,10 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.2996</v>
+        <v>0.2994</v>
       </c>
       <c r="C3">
-        <v>0.2996</v>
+        <v>0.2994</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -442,10 +442,10 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.2966</v>
+        <v>0.2964</v>
       </c>
       <c r="C4">
-        <v>0.2966</v>
+        <v>0.2964</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -453,10 +453,10 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.2912</v>
+        <v>0.291</v>
       </c>
       <c r="C5">
-        <v>0.2912</v>
+        <v>0.291</v>
       </c>
     </row>
   </sheetData>

--- a/5/9/Índice de stress local 2007 - Diaria.xlsx
+++ b/5/9/Índice de stress local 2007 - Diaria.xlsx
@@ -420,10 +420,10 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.3014</v>
+        <v>0.2981</v>
       </c>
       <c r="C2">
-        <v>0.3014</v>
+        <v>0.2981</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -431,10 +431,10 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.2994</v>
+        <v>0.2961</v>
       </c>
       <c r="C3">
-        <v>0.2994</v>
+        <v>0.2961</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -442,10 +442,10 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.2964</v>
+        <v>0.2929</v>
       </c>
       <c r="C4">
-        <v>0.2964</v>
+        <v>0.2929</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -453,10 +453,10 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.291</v>
+        <v>0.2879</v>
       </c>
       <c r="C5">
-        <v>0.291</v>
+        <v>0.2879</v>
       </c>
     </row>
   </sheetData>
